--- a/Data-validation.xlsx
+++ b/Data-validation.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\excelr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9107B67-A102-4BB3-AF23-7B311915AE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09BFB5D-E58B-4370-90B6-44E50366B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{D9AF2CC0-C308-46BE-A54A-D47A2B6E7D3C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D9AF2CC0-C308-46BE-A54A-D47A2B6E7D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Validation" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="actors">'Data Validation'!$J$4:$J$8</definedName>
-    <definedName name="categories">'Data Validation'!$B$4:$B$8</definedName>
-    <definedName name="City">'Data Validation'!$D$4:$D$8</definedName>
-    <definedName name="food">'Data Validation'!$F$5:$F$8</definedName>
-    <definedName name="fruit">'Data Validation'!$H$4:$H$8</definedName>
+    <definedName name="Actors">'Data Validation'!$J$5:$J$8</definedName>
+    <definedName name="Category">'Data Validation'!$B$5:$B$8</definedName>
+    <definedName name="City">'Data Validation'!$D$5:$D$8</definedName>
+    <definedName name="Food">'Data Validation'!$F$5:$F$8</definedName>
+    <definedName name="Fruit">'Data Validation'!$H$5:$H$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>cell d40 is an example for a dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating dropdown of drop downs </t>
+  </si>
+  <si>
+    <t>dependent drop downs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indirect(cell reference) is used </t>
+  </si>
+  <si>
+    <t>to understand it once click on e51 and gothrough the value in it's data validation</t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B4F844-DBEB-48BC-8CDA-30F8C0E4DC6E}">
-  <dimension ref="B4:J43"/>
+  <dimension ref="B4:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,39 +671,69 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21" xr:uid="{1B20080E-4BE9-40F9-B5CF-AD86A112A7D3}">
       <formula1>20</formula1>
       <formula2>30</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40" xr:uid="{5B339567-C780-4FFD-A4FB-50354E7FC58D}">
-      <formula1>food</formula1>
+      <formula1>Food</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51" xr:uid="{B8A5A76A-220E-4F90-8712-867D140F38ED}">
+      <formula1>Category</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51" xr:uid="{1E16C6E8-E537-462C-8DCD-9100FD3FF721}">
+      <formula1>INDIRECT($C$51)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
